--- a/Generate_TestCase_Selenium-Web/ValidateItem/ValidateElement-Reg.xlsx
+++ b/Generate_TestCase_Selenium-Web/ValidateItem/ValidateElement-Reg.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>xpath</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>Bạn sẽ sử dụng thông tin này khi đăng nhập và khi cần đặt lại mật khẩu.</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div[3]/div[6]/div/div/div</t>
-  </si>
-  <si>
-    <t>Nhập mật khẩu có tối thiểu 6 ký tự bao gồm số, chữ cái và dấu chấm câu (như ! và &amp;).</t>
   </si>
   <si>
     <t>Vui lòng nhập lại số di động hoặc địa chỉ email hợp lệ.</t>
@@ -395,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -449,15 +443,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
